--- a/data/unchecked/manual_collect/china/fujian/fujianCaseStatistics_20200221.xlsx
+++ b/data/unchecked/manual_collect/china/fujian/fujianCaseStatistics_20200221.xlsx
@@ -10305,8 +10305,8 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ hh:mm"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm:ss;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -10392,6 +10392,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -10401,15 +10451,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10423,6 +10472,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -10430,36 +10480,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10475,32 +10498,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10512,16 +10512,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10529,7 +10529,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10556,7 +10556,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10568,7 +10616,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10580,91 +10700,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10676,19 +10724,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10700,43 +10736,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10760,6 +10760,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -10776,24 +10791,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10813,21 +10830,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -10839,157 +10841,155 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11028,14 +11028,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -11380,9 +11380,9 @@
   <dimension ref="A1:AN77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M78" sqref="M78"/>
+      <selection pane="bottomLeft" activeCell="K75" sqref="K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -16842,7 +16842,9 @@
       <c r="H75" s="15"/>
       <c r="I75" s="20"/>
       <c r="J75" s="20"/>
-      <c r="K75" s="20"/>
+      <c r="K75" s="20">
+        <v>1</v>
+      </c>
       <c r="L75" s="20"/>
       <c r="M75" s="20">
         <v>6</v>
@@ -16925,7 +16927,7 @@
       </c>
       <c r="N76" s="20"/>
       <c r="O76" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P76" s="20"/>
       <c r="Q76" s="20"/>
@@ -16992,17 +16994,13 @@
       </c>
       <c r="I77" s="20"/>
       <c r="J77" s="20"/>
-      <c r="K77" s="20">
-        <v>1</v>
-      </c>
+      <c r="K77" s="20"/>
       <c r="L77" s="20"/>
       <c r="M77" s="20">
         <v>1</v>
       </c>
       <c r="N77" s="20"/>
-      <c r="O77" s="20">
-        <v>1</v>
-      </c>
+      <c r="O77" s="20"/>
       <c r="P77" s="20"/>
       <c r="Q77" s="20"/>
       <c r="R77" s="20"/>
@@ -17043,8 +17041,8 @@
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2 AA3 AA4 AA5 AA6 AA7 AA8 AA9 AA10 AA11 AA12 AA13 AA14 AA15 AA16 AA17 AA18 AA19 AE19 AK19 AA20 AE20 AK20 AA21 AA22 AA23 AA24 AA25 AA26 AA27 AA28 AA29 AA30 AA31 AA32 AA33 AA34 AA35 AA36 AA37 AA38 AA39 AA40 AA41 AA42 AA43 AA44 AA45 AA46 AA47 AE47 AK47 AA48 AA49 AA50 AA51 AA52 AE52 AK52 AA53 AA54 AA55 AA56 AA57 AA58 AA59 AA60 AE60 AK60 AA61 AE61 AK61 AA62 AA63 AA64 AA65 AA66 AA67 AA68 AE68 AK68 AA69 AA70 AA71 AA72 AA73 AA74 AE74 AK74 AA75 AA76 AA77 AA78:AA1048576 AE2:AE13 AE14:AE16 AE17:AE18 AE21:AE26 AE27:AE30 AE31:AE33 AE34:AE41 AE42:AE46 AE48:AE51 AE53:AE59 AE62:AE64 AE65:AE67 AE69:AE70 AE71:AE73 AE75:AE77 AE78:AE1048576 AK2:AK13 AK14:AK16 AK17:AK18 AK21:AK26 AK27:AK30 AK31:AK33 AK34:AK41 AK42:AK46 AK48:AK51 AK53:AK59 AK62:AK64 AK65:AK67 AK69:AK70 AK71:AK73 AK75:AK77 AK78:AK1048576">
-      <formula1>"手动,自动"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG19 AM19 AG20 AM20 AG47 AM47 AG52 AM52 AG60 AM60 AG61 AM61 AG68 AM68 AG74 AM74 AG2:AG13 AG14:AG16 AG17:AG18 AG21:AG26 AG27:AG30 AG31:AG33 AG34:AG41 AG42:AG46 AG48:AG51 AG53:AG59 AG62:AG64 AG65:AG67 AG69:AG70 AG71:AG73 AG75:AG77 AG78:AG1048576 AM2:AM13 AM14:AM16 AM17:AM18 AM21:AM26 AM27:AM30 AM31:AM33 AM34:AM41 AM42:AM46 AM48:AM51 AM53:AM59 AM62:AM64 AM65:AM67 AM69:AM70 AM71:AM73 AM75:AM77 AM78:AM1048576">
+      <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="F19 F20 F47 F52 F60 F61 F68 F2:F13 F14:F16 F17:F18 F21:F26 F27:F30 F31:F33 F34:F35 F36:F37 F38:F39 F40:F41 F42:F46 F48:F51 F53:F59 F62:F64 F65:F67 F69:F70 F71:F74 F75:F77 F78:F1048576">
       <formula1>中国各省市区县数据!$E$2:$E$36</formula1>
@@ -17052,20 +17050,20 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H13 H19 H20 H23 H24 H25 H26 H31 H32 H33 H41 H42 H43 H52 H60 H61 H68 H74 H2:H11 H14:H16 H17:H18 H21:H22 H27:H30 H34:H40 H44:H46 H49:H51 H53:H59 H62:H64 H65:H67 H71:H73 H75:H77 H78:H1048576">
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I19:L19 M19:O19 P19:R19 I20:L20 M20:O20 P20:R20 I33:K33 M33 O33 P33:R33 N42 N43 I47:L47 M47:N47 P47:R47 I52:L52 M52:O52 P52:R52 I60:L60 M60:O60 P60:R60 I61:L61 M61:O61 P61:R61 I68:L68 M68:O68 P68:R68 I74:L74 M74:O74 P74:R74 M34:M41 M42:M46 N44:N46 O34:O41 I2:L13 M2:O13 P2:R13 I14:L16 I62:L64 I65:L67 I71:L73 I17:L18 I31:L32 I69:L70 M17:O18 P17:R18 M31:O32 P31:R32 M69:O70 P69:R70 I75:L77 M14:O16 P14:R16 M62:O64 P62:R64 M65:O67 P65:R67 M71:O73 P71:R73 I48:L51 M48:O51 P48:R51 M75:O77 P75:R77 I27:L30 M27:O30 P27:R30 P42:R46 M21:O26 P21:R26 I21:L26 P34:R41 I42:K46 I34:K41 I78:L1048576 M78:O1048576 P78:R1048576 I53:L59 M53:O59 P53:R59">
-      <formula1>0</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2 AA3 AA4 AA5 AA6 AA7 AA8 AA9 AA10 AA11 AA12 AA13 AA14 AA15 AA16 AA17 AA18 AA19 AE19 AK19 AA20 AE20 AK20 AA21 AA22 AA23 AA24 AA25 AA26 AA27 AA28 AA29 AA30 AA31 AA32 AA33 AA34 AA35 AA36 AA37 AA38 AA39 AA40 AA41 AA42 AA43 AA44 AA45 AA46 AA47 AE47 AK47 AA48 AA49 AA50 AA51 AA52 AE52 AK52 AA53 AA54 AA55 AA56 AA57 AA58 AA59 AA60 AE60 AK60 AA61 AE61 AK61 AA62 AA63 AA64 AA65 AA66 AA67 AA68 AE68 AK68 AA69 AA70 AA71 AA72 AA73 AA74 AE74 AK74 AA75 AA76 AA77 AA78:AA1048576 AE2:AE13 AE14:AE16 AE17:AE18 AE21:AE26 AE27:AE30 AE31:AE33 AE34:AE41 AE42:AE46 AE48:AE51 AE53:AE59 AE62:AE64 AE65:AE67 AE69:AE70 AE71:AE73 AE75:AE77 AE78:AE1048576 AK2:AK13 AK14:AK16 AK17:AK18 AK21:AK26 AK27:AK30 AK31:AK33 AK34:AK41 AK42:AK46 AK48:AK51 AK53:AK59 AK62:AK64 AK65:AK67 AK69:AK70 AK71:AK73 AK75:AK77 AK78:AK1048576">
+      <formula1>"手动,自动"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B19 B20 B47 B52 B60 B61 B68 B2:B11 B12:B16 B17:B18 B21:B26 B27:B30 B31:B33 B34:B35 B36:B37 B38:B39 B40:B41 B42:B46 B48:B51 B53:B59 B62:B64 B65:B67 B69:B70 B71:B74 B75:B77 B78:B1048576">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG19 AM19 AG20 AM20 AG47 AM47 AG52 AM52 AG60 AM60 AG61 AM61 AG68 AM68 AG74 AM74 AG2:AG13 AG14:AG16 AG17:AG18 AG21:AG26 AG27:AG30 AG31:AG33 AG34:AG41 AG42:AG46 AG48:AG51 AG53:AG59 AG62:AG64 AG65:AG67 AG69:AG70 AG71:AG73 AG75:AG77 AG78:AG1048576 AM2:AM13 AM14:AM16 AM17:AM18 AM21:AM26 AM27:AM30 AM31:AM33 AM34:AM41 AM42:AM46 AM48:AM51 AM53:AM59 AM62:AM64 AM65:AM67 AM69:AM70 AM71:AM73 AM75:AM77 AM78:AM1048576">
-      <formula1>"核查通过,核查未通过"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC19 AC20 AC47 AC52 AC60 AC61 AC68 AC74 AC2:AC13 AC14:AC16 AC17:AC18 AC21:AC26 AC27:AC30 AC31:AC33 AC34:AC41 AC42:AC46 AC48:AC51 AC53:AC59 AC62:AC64 AC65:AC67 AC69:AC70 AC71:AC73 AC75:AC77 AC78:AC1048576">
+      <formula1>"未核查,已核查"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G19 G20 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G47 G52 G60 G61 G68 G2:G13 G14:G16 G17:G18 G21:G26 G27:G30 G31:G32 G44:G46 G48:G51 G53:G59 G62:G64 G65:G67 G69:G70 G71:G74 G75:G77 G78:G1048576">
       <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC19 AC20 AC47 AC52 AC60 AC61 AC68 AC74 AC2:AC13 AC14:AC16 AC17:AC18 AC21:AC26 AC27:AC30 AC31:AC33 AC34:AC41 AC42:AC46 AC48:AC51 AC53:AC59 AC62:AC64 AC65:AC67 AC69:AC70 AC71:AC73 AC75:AC77 AC78:AC1048576">
-      <formula1>"未核查,已核查"</formula1>
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I19:L19 M19:O19 P19:R19 I20:L20 M20:O20 P20:R20 I33:K33 M33 O33 P33:R33 N42 N43 I47:L47 M47:N47 P47:R47 I52:L52 M52:O52 P52:R52 I60:L60 M60:O60 P60:R60 I61:L61 M61:O61 P61:R61 I68:L68 M68:O68 P68:R68 I74:L74 M74:O74 P74:R74 M34:M41 M42:M46 N44:N46 O34:O41 I2:L13 M2:O13 P2:R13 I14:L16 I62:L64 I65:L67 I71:L73 I17:L18 I31:L32 I69:L70 M17:O18 P17:R18 M31:O32 P31:R32 M69:O70 P69:R70 I75:L77 M14:O16 P14:R16 M62:O64 P62:R64 M65:O67 P65:R67 M71:O73 P71:R73 I48:L51 M48:O51 P48:R51 M75:O77 P75:R77 I27:L30 M27:O30 P27:R30 P42:R46 M21:O26 P21:R26 I21:L26 P34:R41 I42:K46 I34:K41 I78:L1048576 M78:O1048576 P78:R1048576 I53:L59 M53:O59 P53:R59">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
